--- a/docs/odh/obf-Annotation-extension.xlsx
+++ b/docs/odh/obf-Annotation-extension.xlsx
@@ -222,7 +222,7 @@
     <t>Extension.valueAnnotation</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {http://hl7.org/fhir/us/odh/StructureDefinition/obf-Annotation}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
